--- a/OPEN.xlsx
+++ b/OPEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/B5A48C2CCD1C7DDF/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{B567196E-102F-4CF4-99B0-45376A933F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3604B2A-7DC3-41F1-B18B-0D153DC18420}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{B567196E-102F-4CF4-99B0-45376A933F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A2E0923-5DCE-4240-BEF3-1F2CD60158EC}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1845" windowWidth="16950" windowHeight="18330" xr2:uid="{2977C72C-609F-4071-B28E-35E2D12E148D}"/>
+    <workbookView xWindow="6615" yWindow="1845" windowWidth="16950" windowHeight="18330" activeTab="1" xr2:uid="{2977C72C-609F-4071-B28E-35E2D12E148D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8C31FD-FB99-4F27-854A-A6A76C0099F5}">
   <dimension ref="G2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F491E631-7A5C-4A9E-9719-4F7745708981}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +796,9 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1184,31 +1186,31 @@
         <v>21</v>
       </c>
       <c r="C17" s="6">
-        <f>C11/C4</f>
+        <f t="shared" ref="C17:I17" si="0">C11/C4</f>
         <v>-5.2279223884488468E-2</v>
       </c>
       <c r="D17" s="6">
-        <f>D11/D4</f>
+        <f t="shared" si="0"/>
         <v>-7.1953656061795018E-2</v>
       </c>
       <c r="E17" s="6">
-        <f>E11/E4</f>
+        <f t="shared" si="0"/>
         <v>-6.782196733574368E-2</v>
       </c>
       <c r="F17" s="6">
-        <f>F11/F4</f>
+        <f t="shared" si="0"/>
         <v>-5.9805999871523095E-2</v>
       </c>
       <c r="G17" s="6">
-        <f>G11/G4</f>
+        <f t="shared" si="0"/>
         <v>-5.5571551972358191E-2</v>
       </c>
       <c r="H17" s="6">
-        <f>H11/H4</f>
+        <f t="shared" si="0"/>
         <v>-6.2099747719774889E-2</v>
       </c>
       <c r="I17" s="6">
-        <f>I11/I4</f>
+        <f t="shared" si="0"/>
         <v>-4.856895056374675E-2</v>
       </c>
     </row>
@@ -1312,31 +1314,31 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <f>C21-C22</f>
+        <f t="shared" ref="C23:I23" si="1">C21-C22</f>
         <v>-300022</v>
       </c>
       <c r="D23">
-        <f>D21-D22</f>
+        <f t="shared" si="1"/>
         <v>664570</v>
       </c>
       <c r="E23">
-        <f>E21-E22</f>
+        <f t="shared" si="1"/>
         <v>-5827</v>
       </c>
       <c r="F23">
-        <f>F21-F22</f>
+        <f t="shared" si="1"/>
         <v>693</v>
       </c>
       <c r="G23">
-        <f>G21-G22</f>
+        <f t="shared" si="1"/>
         <v>2297</v>
       </c>
       <c r="H23">
-        <f>H21-H22</f>
+        <f t="shared" si="1"/>
         <v>-620</v>
       </c>
       <c r="I23">
-        <f>I21-I22</f>
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
     </row>
